--- a/patient_data/patient_88.xlsx
+++ b/patient_data/patient_88.xlsx
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1975,28 +1975,28 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2052,28 +2052,28 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2129,28 +2129,28 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
